--- a/data/trans_orig/P1434-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D11066D-07DA-4063-9D1B-267DB82B736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0BBAE96-7743-421F-A39A-C0B226FFEE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C2817E4-0149-48B2-9716-2130B580079B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D584EC-6B3A-4437-83E9-D436133A138A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -122,19 +122,19 @@
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -146,6 +146,9 @@
     <t>3,56%</t>
   </si>
   <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>4,92%</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
     <t>95,08%</t>
   </si>
   <si>
+    <t>97,51%</t>
+  </si>
+  <si>
     <t>mas de 50</t>
   </si>
   <si>
@@ -164,418 +170,412 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>94,12%</t>
+    <t>96,95%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -590,10 +590,10 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F257942-8EC1-4FA3-B56E-E16EC95BA9E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A07ECE0-0FBB-4F8F-9184-8A72D2F3FE2A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1577,10 +1577,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1623,13 @@
         <v>927517</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>927517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1729,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1772,13 @@
         <v>22815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1800,13 +1800,13 @@
         <v>22815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,13 +1821,13 @@
         <v>655694</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>655694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1970,13 @@
         <v>31568</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>31568</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +2019,13 @@
         <v>910654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>910654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2168,13 @@
         <v>106188</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2196,13 +2196,13 @@
         <v>106188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2217,13 @@
         <v>3170356</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>3170356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89E2AB-0B3E-47B5-BF80-1180FE7289B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F6B41-AE94-43B5-BF5B-B211AD3A8537}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,7 +2343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2456,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2499,13 @@
         <v>1651</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>1651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2548,13 @@
         <v>114114</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>114114</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2697,13 @@
         <v>20785</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>20785</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>566919</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>566919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2895,13 @@
         <v>32936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2923,13 +2923,13 @@
         <v>32936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>982820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2972,13 +2972,13 @@
         <v>982820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3032,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3050,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3093,13 @@
         <v>27213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>27213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>730410</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>730410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3230,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3291,13 +3291,13 @@
         <v>41825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>41825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3340,13 @@
         <v>905914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>905914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3489,13 @@
         <v>124409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>124409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3538,13 @@
         <v>3300178</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3566,13 +3566,13 @@
         <v>3300178</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3626,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8981F6A3-3956-4F6E-8EF9-79CF16963409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D27DDFB-4CF1-4FCA-8E7F-5F42BF59B4AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3777,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3820,13 @@
         <v>10126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3848,13 +3848,13 @@
         <v>10126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3869,13 @@
         <v>106420</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         <v>106420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3975,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4018,13 @@
         <v>15215</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4046,13 +4046,13 @@
         <v>15215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4067,13 @@
         <v>543039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4095,13 +4095,13 @@
         <v>543039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,7 +4173,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4216,13 @@
         <v>24826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4244,13 +4244,13 @@
         <v>24826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4265,13 @@
         <v>997605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4293,13 +4293,13 @@
         <v>997605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,7 +4353,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4371,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4414,13 @@
         <v>23438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>23438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +4463,10 @@
         <v>736114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>126</v>
@@ -4491,10 +4491,10 @@
         <v>736114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>126</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4767,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4947,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EACABF-1756-4112-8DEB-0453CCA0D330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32400B8-C1D8-45FD-9106-6F7EFA380AC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5144,10 +5144,10 @@
         <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5172,10 +5172,10 @@
         <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5190,13 @@
         <v>97372</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>97372</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5290,13 @@
         <v>707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5318,13 +5318,13 @@
         <v>707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5339,13 @@
         <v>42400</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5367,13 +5367,13 @@
         <v>42400</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5388,13 @@
         <v>506008</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5416,13 +5416,13 @@
         <v>506008</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5488,13 @@
         <v>2699</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5516,13 +5516,13 @@
         <v>2699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5537,13 @@
         <v>51601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5565,13 +5565,13 @@
         <v>51601</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5586,13 @@
         <v>983005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5614,13 +5614,13 @@
         <v>983005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,7 +5674,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5686,13 +5686,13 @@
         <v>2039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>2039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5735,13 @@
         <v>29469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5763,13 +5763,13 @@
         <v>29469</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5784,13 @@
         <v>692411</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5812,13 +5812,13 @@
         <v>692411</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5872,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5884,13 +5884,13 @@
         <v>7625</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5912,13 +5912,13 @@
         <v>7625</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5933,13 @@
         <v>66308</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5961,13 +5961,13 @@
         <v>66308</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5982,13 @@
         <v>891469</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6010,13 +6010,13 @@
         <v>891469</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,10 +6082,10 @@
         <v>13070</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>178</v>
@@ -6110,10 +6110,10 @@
         <v>13070</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>178</v>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1434-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0BBAE96-7743-421F-A39A-C0B226FFEE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C21F37D-FBFA-42BE-951F-8814C452E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72D584EC-6B3A-4437-83E9-D436133A138A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04D6B52B-D074-452E-9890-28F70BAF611E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="182">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -92,420 +92,414 @@
     <t>2,79%</t>
   </si>
   <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>4,97%</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
   </si>
   <si>
     <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
   </si>
   <si>
     <t>6,87%</t>
@@ -1005,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A07ECE0-0FBB-4F8F-9184-8A72D2F3FE2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CE2428-E05F-4101-82A3-387FE5682A94}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1181,10 +1172,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1209,16 +1200,16 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>102</v>
@@ -1227,13 +1218,13 @@
         <v>112138</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1255,13 +1246,13 @@
         <v>112138</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,13 +1267,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1304,18 +1295,18 @@
         <v>115358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1333,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1361,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1376,13 +1367,13 @@
         <v>14303</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1404,19 +1395,19 @@
         <v>14303</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>563</v>
@@ -1425,13 +1416,13 @@
         <v>564351</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1453,13 +1444,13 @@
         <v>564351</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,13 +1465,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1502,18 +1493,18 @@
         <v>578654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1531,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1559,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1565,13 @@
         <v>34283</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1602,19 +1593,19 @@
         <v>34283</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>862</v>
@@ -1623,13 +1614,13 @@
         <v>927517</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1651,13 +1642,13 @@
         <v>927517</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,13 +1663,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1700,18 +1691,18 @@
         <v>961800</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1729,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1757,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1763,13 @@
         <v>22815</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1800,19 +1791,19 @@
         <v>22815</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
         <v>618</v>
@@ -1821,13 +1812,13 @@
         <v>655694</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1849,13 +1840,13 @@
         <v>655694</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1861,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1898,18 +1889,18 @@
         <v>678509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1927,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1955,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1961,13 @@
         <v>31568</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1998,19 +1989,19 @@
         <v>31568</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>958</v>
@@ -2019,13 +2010,13 @@
         <v>910654</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2047,13 +2038,13 @@
         <v>910654</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2059,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2096,13 +2087,13 @@
         <v>942222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2153,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2159,13 @@
         <v>106188</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2196,34 +2187,34 @@
         <v>106188</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>3103</v>
       </c>
       <c r="D26" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2242,16 +2233,16 @@
         <v>3103</v>
       </c>
       <c r="N26" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,16 +2254,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2291,21 +2282,21 @@
         <v>3214</v>
       </c>
       <c r="N27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6F6B41-AE94-43B5-BF5B-B211AD3A8537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9F74A-7BF4-43BC-B7EE-1FEB12F72070}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2456,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2484,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2490,13 @@
         <v>1651</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2527,19 +2518,19 @@
         <v>1651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>120</v>
@@ -2548,13 +2539,13 @@
         <v>114114</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2576,13 +2567,13 @@
         <v>114114</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2588,13 @@
         <v>115765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2625,18 +2616,18 @@
         <v>115765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2654,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2682,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2688,13 @@
         <v>20785</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2725,19 +2716,19 @@
         <v>20785</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>534</v>
@@ -2746,13 +2737,13 @@
         <v>566919</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2774,13 +2765,13 @@
         <v>566919</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2786,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2823,18 +2814,18 @@
         <v>587704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2852,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2880,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2886,13 @@
         <v>32936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2923,19 +2914,19 @@
         <v>32936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>904</v>
@@ -2944,13 +2935,13 @@
         <v>982820</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2972,13 +2963,13 @@
         <v>982820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2984,13 @@
         <v>1015756</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3021,18 +3012,18 @@
         <v>1015756</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3050,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3078,7 +3069,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3084,13 @@
         <v>27213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3121,19 +3112,19 @@
         <v>27213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
         <v>666</v>
@@ -3142,13 +3133,13 @@
         <v>730410</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3170,13 +3161,13 @@
         <v>730410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3182,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3219,18 +3210,18 @@
         <v>757623</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3248,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3276,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3282,13 @@
         <v>41825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3319,19 +3310,19 @@
         <v>41825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>872</v>
@@ -3340,13 +3331,13 @@
         <v>905914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3368,13 +3359,13 @@
         <v>905914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3380,13 @@
         <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3417,13 +3408,13 @@
         <v>947739</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3437,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3474,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3480,13 @@
         <v>124409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3517,19 +3508,19 @@
         <v>124409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>3096</v>
@@ -3538,13 +3529,13 @@
         <v>3300178</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3566,13 +3557,13 @@
         <v>3300178</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3578,13 @@
         <v>3424587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3615,18 +3606,18 @@
         <v>3424587</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D27DDFB-4CF1-4FCA-8E7F-5F42BF59B4AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32360B07-C4B6-408A-88AF-C06945037256}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3777,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3805,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3811,13 @@
         <v>10126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3848,19 +3839,19 @@
         <v>10126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>102</v>
@@ -3869,13 +3860,13 @@
         <v>106420</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3897,13 +3888,13 @@
         <v>106420</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3909,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3946,18 +3937,18 @@
         <v>116546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3975,7 +3966,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4003,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4009,13 @@
         <v>15215</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4046,19 +4037,19 @@
         <v>15215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>523</v>
@@ -4067,13 +4058,13 @@
         <v>543039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4095,13 +4086,13 @@
         <v>543039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4107,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4144,18 +4135,18 @@
         <v>558254</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4173,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4201,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4207,13 @@
         <v>24826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4244,19 +4235,19 @@
         <v>24826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>924</v>
@@ -4265,13 +4256,13 @@
         <v>997605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4293,13 +4284,13 @@
         <v>997605</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4305,13 @@
         <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4342,18 +4333,18 @@
         <v>1022431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4371,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4399,7 +4390,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4405,13 @@
         <v>23438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4442,19 +4433,19 @@
         <v>23438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
         <v>673</v>
@@ -4463,13 +4454,13 @@
         <v>736114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4491,13 +4482,13 @@
         <v>736114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4503,13 @@
         <v>759552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4540,18 +4531,18 @@
         <v>759552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4569,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4597,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4603,13 @@
         <v>35397</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4640,19 +4631,19 @@
         <v>35397</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>895</v>
@@ -4661,13 +4652,13 @@
         <v>902170</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4689,13 +4680,13 @@
         <v>902170</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4701,13 @@
         <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4738,13 +4729,13 @@
         <v>937567</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4795,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4801,13 @@
         <v>109002</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4838,19 +4829,19 @@
         <v>109002</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>3117</v>
@@ -4859,13 +4850,13 @@
         <v>3285348</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4887,13 +4878,13 @@
         <v>3285348</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,13 +4899,13 @@
         <v>3394350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -4936,18 +4927,18 @@
         <v>3394350</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4968,7 +4959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32400B8-C1D8-45FD-9106-6F7EFA380AC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4101B63E-EC35-46C7-8AE8-76F249DBD978}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +4976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5126,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5132,13 @@
         <v>4610</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5169,19 +5160,19 @@
         <v>4610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>111</v>
@@ -5190,13 +5181,13 @@
         <v>97372</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5218,13 +5209,13 @@
         <v>97372</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5230,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5267,18 +5258,18 @@
         <v>101982</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5290,13 +5281,13 @@
         <v>707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5318,13 +5309,13 @@
         <v>707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5330,13 @@
         <v>42400</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5367,19 +5358,19 @@
         <v>42400</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>542</v>
@@ -5388,13 +5379,13 @@
         <v>506008</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5416,13 +5407,13 @@
         <v>506008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5428,13 @@
         <v>549115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5465,18 +5456,18 @@
         <v>549115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5488,13 +5479,13 @@
         <v>2699</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5516,13 +5507,13 @@
         <v>2699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5528,13 @@
         <v>51601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5565,19 +5556,19 @@
         <v>51601</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>887</v>
@@ -5586,13 +5577,13 @@
         <v>983005</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5614,13 +5605,13 @@
         <v>983005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5626,13 @@
         <v>1037304</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5663,18 +5654,18 @@
         <v>1037304</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5686,13 +5677,13 @@
         <v>2039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5714,13 +5705,13 @@
         <v>2039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5726,13 @@
         <v>29469</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5763,19 +5754,19 @@
         <v>29469</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
         <v>633</v>
@@ -5784,13 +5775,13 @@
         <v>692411</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5812,13 +5803,13 @@
         <v>692411</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5824,13 @@
         <v>723919</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5861,18 +5852,18 @@
         <v>723919</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5884,13 +5875,13 @@
         <v>7625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5912,13 +5903,13 @@
         <v>7625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5924,13 @@
         <v>66308</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5961,19 +5952,19 @@
         <v>66308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>908</v>
@@ -5982,13 +5973,13 @@
         <v>891469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6010,13 +6001,13 @@
         <v>891469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6022,13 @@
         <v>965403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6059,13 +6050,13 @@
         <v>965403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6073,13 @@
         <v>13070</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6110,13 +6101,13 @@
         <v>13070</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6122,13 @@
         <v>194387</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6159,19 +6150,19 @@
         <v>194387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>3081</v>
@@ -6180,13 +6171,13 @@
         <v>3170265</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6208,13 +6199,13 @@
         <v>3170265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6220,13 @@
         <v>3377723</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6257,18 +6248,18 @@
         <v>3377723</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1434-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C21F37D-FBFA-42BE-951F-8814C452E0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C41D196-8B51-4413-847C-868FAABAF7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04D6B52B-D074-452E-9890-28F70BAF611E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60E9D29A-1DA8-402D-BF2F-83112590AB88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -71,520 +71,454 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>5,46%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>94,54%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>10,24%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -996,8 +930,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CE2428-E05F-4101-82A3-387FE5682A94}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF38C137-8659-4859-A77B-D215FD8543ED}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1114,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3220</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1142,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3220</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1163,19 +1097,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>3220</v>
+        <v>112138</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1191,40 +1125,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>3220</v>
+        <v>112138</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>112138</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1240,40 +1174,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N6" s="7">
-        <v>112138</v>
+        <v>115358</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14303</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>105</v>
-      </c>
-      <c r="D7" s="7">
-        <v>115358</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1289,42 +1225,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>115358</v>
+        <v>14303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>564351</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1340,40 +1274,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>564351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>14303</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1389,40 +1323,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>578</v>
       </c>
       <c r="N9" s="7">
-        <v>14303</v>
+        <v>578654</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>563</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>564351</v>
+        <v>34283</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1438,40 +1374,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>563</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>564351</v>
+        <v>34283</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>862</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>927517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1487,42 +1423,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>578</v>
+        <v>862</v>
       </c>
       <c r="N11" s="7">
-        <v>578654</v>
+        <v>927517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>961800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1538,31 +1472,33 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>961800</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>34283</v>
+        <v>22815</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>33</v>
@@ -1587,10 +1523,10 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>34283</v>
+        <v>22815</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>33</v>
@@ -1605,13 +1541,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>862</v>
+        <v>618</v>
       </c>
       <c r="D14" s="7">
-        <v>927517</v>
+        <v>655694</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>36</v>
@@ -1636,10 +1572,10 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>862</v>
+        <v>618</v>
       </c>
       <c r="N14" s="7">
-        <v>927517</v>
+        <v>655694</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>36</v>
@@ -1657,19 +1593,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1685,19 +1621,19 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="N15" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,19 +1644,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>31568</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1736,19 +1672,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>31568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,19 +1693,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>958</v>
       </c>
       <c r="D17" s="7">
-        <v>22815</v>
+        <v>910654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1785,40 +1721,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>958</v>
       </c>
       <c r="N17" s="7">
-        <v>22815</v>
+        <v>910654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>618</v>
+        <v>994</v>
       </c>
       <c r="D18" s="7">
-        <v>655694</v>
+        <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1834,40 +1770,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>618</v>
+        <v>994</v>
       </c>
       <c r="N18" s="7">
-        <v>655694</v>
+        <v>942222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>111</v>
+      </c>
+      <c r="D19" s="7">
+        <v>106188</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>641</v>
-      </c>
-      <c r="D19" s="7">
-        <v>678509</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1883,42 +1821,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>641</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7">
-        <v>678509</v>
+        <v>106188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3103</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3170356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1934,40 +1870,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3103</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3170356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>36</v>
+        <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>31568</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1983,342 +1919,46 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>36</v>
+        <v>3214</v>
       </c>
       <c r="N21" s="7">
-        <v>31568</v>
+        <v>3276544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7">
-        <v>958</v>
-      </c>
-      <c r="D22" s="7">
-        <v>910654</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="A22" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="7">
-        <v>958</v>
-      </c>
-      <c r="N22" s="7">
-        <v>910654</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>994</v>
-      </c>
-      <c r="D23" s="7">
-        <v>942222</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>994</v>
-      </c>
-      <c r="N23" s="7">
-        <v>942222</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>111</v>
-      </c>
-      <c r="D25" s="7">
-        <v>106188</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>111</v>
-      </c>
-      <c r="N25" s="7">
-        <v>106188</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3103</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9F74A-7BF4-43BC-B7EE-1FEB12F72070}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0B403B-778E-4F79-A730-13F81EE19E30}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2334,7 +1974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2435,19 +2075,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1651</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2463,19 +2103,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,19 +2124,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
-        <v>1651</v>
+        <v>114114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2512,40 +2152,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>1651</v>
+        <v>114114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>114114</v>
+        <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2561,40 +2201,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N6" s="7">
-        <v>114114</v>
+        <v>115765</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>115765</v>
+        <v>20785</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2610,42 +2252,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>115765</v>
+        <v>20785</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>566919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2661,40 +2301,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>566919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>552</v>
       </c>
       <c r="D9" s="7">
-        <v>20785</v>
+        <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2710,40 +2350,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>20785</v>
+        <v>587704</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>566919</v>
+        <v>32936</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2759,40 +2401,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>534</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>566919</v>
+        <v>32936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>904</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>982820</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2808,42 +2450,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>552</v>
+        <v>904</v>
       </c>
       <c r="N11" s="7">
-        <v>587704</v>
+        <v>982820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1015756</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2859,40 +2499,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1015756</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>32936</v>
+        <v>27213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2908,40 +2550,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>32936</v>
+        <v>27213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>904</v>
+        <v>666</v>
       </c>
       <c r="D14" s="7">
-        <v>982820</v>
+        <v>730410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2957,19 +2599,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>904</v>
+        <v>666</v>
       </c>
       <c r="N14" s="7">
-        <v>982820</v>
+        <v>730410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,19 +2620,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>1015756</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3006,19 +2648,19 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="N15" s="7">
-        <v>1015756</v>
+        <v>757623</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,19 +2671,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>41825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3057,19 +2699,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>41825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,19 +2720,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>872</v>
       </c>
       <c r="D17" s="7">
-        <v>27213</v>
+        <v>905914</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3106,40 +2748,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>872</v>
       </c>
       <c r="N17" s="7">
-        <v>27213</v>
+        <v>905914</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>666</v>
+        <v>910</v>
       </c>
       <c r="D18" s="7">
-        <v>730410</v>
+        <v>947739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3155,40 +2797,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>666</v>
+        <v>910</v>
       </c>
       <c r="N18" s="7">
-        <v>730410</v>
+        <v>947739</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>112</v>
+      </c>
+      <c r="D19" s="7">
+        <v>124409</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>689</v>
-      </c>
-      <c r="D19" s="7">
-        <v>757623</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3204,42 +2848,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>689</v>
+        <v>112</v>
       </c>
       <c r="N19" s="7">
-        <v>757623</v>
+        <v>124409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3096</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3300178</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3255,40 +2897,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3096</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3300178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>38</v>
+        <v>3208</v>
       </c>
       <c r="D21" s="7">
-        <v>41825</v>
+        <v>3424587</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3304,342 +2946,46 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>38</v>
+        <v>3208</v>
       </c>
       <c r="N21" s="7">
-        <v>41825</v>
+        <v>3424587</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7">
-        <v>872</v>
-      </c>
-      <c r="D22" s="7">
-        <v>905914</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="7">
-        <v>872</v>
-      </c>
-      <c r="N22" s="7">
-        <v>905914</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>910</v>
-      </c>
-      <c r="D23" s="7">
-        <v>947739</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>910</v>
-      </c>
-      <c r="N23" s="7">
-        <v>947739</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>112</v>
-      </c>
-      <c r="D25" s="7">
-        <v>124409</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>112</v>
-      </c>
-      <c r="N25" s="7">
-        <v>124409</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3096</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3096</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3208</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>62</v>
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32360B07-C4B6-408A-88AF-C06945037256}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40F368E-C19B-4AB7-ADB9-DA16F3E5BBD7}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3655,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3756,19 +3102,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3784,19 +3130,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,19 +3151,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>10126</v>
+        <v>106420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3833,40 +3179,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="N5" s="7">
-        <v>10126</v>
+        <v>106420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7">
-        <v>106420</v>
+        <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3882,40 +3228,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N6" s="7">
-        <v>106420</v>
+        <v>116546</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>15215</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3931,42 +3279,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>116546</v>
+        <v>15215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>543039</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3982,40 +3328,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>543039</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>539</v>
       </c>
       <c r="D9" s="7">
-        <v>15215</v>
+        <v>558254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4031,40 +3377,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>539</v>
       </c>
       <c r="N9" s="7">
-        <v>15215</v>
+        <v>558254</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>523</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>543039</v>
+        <v>24826</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4080,40 +3428,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>523</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>543039</v>
+        <v>24826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>924</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>997605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4129,42 +3477,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>539</v>
+        <v>924</v>
       </c>
       <c r="N11" s="7">
-        <v>558254</v>
+        <v>997605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1022431</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4180,40 +3526,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1022431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>24826</v>
+        <v>23438</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4229,40 +3577,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>24826</v>
+        <v>23438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c r="D14" s="7">
-        <v>997605</v>
+        <v>736114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4278,19 +3626,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c r="N14" s="7">
-        <v>997605</v>
+        <v>736114</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,19 +3647,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4327,19 +3675,19 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="N15" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,19 +3698,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>35397</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4378,19 +3726,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>35397</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,19 +3747,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>895</v>
       </c>
       <c r="D17" s="7">
-        <v>23438</v>
+        <v>902170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4427,40 +3775,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>895</v>
       </c>
       <c r="N17" s="7">
-        <v>23438</v>
+        <v>902170</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>673</v>
+        <v>932</v>
       </c>
       <c r="D18" s="7">
-        <v>736114</v>
+        <v>937567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4476,40 +3824,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>673</v>
+        <v>932</v>
       </c>
       <c r="N18" s="7">
-        <v>736114</v>
+        <v>937567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>696</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7">
-        <v>759552</v>
+        <v>109002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4525,42 +3875,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>696</v>
+        <v>114</v>
       </c>
       <c r="N19" s="7">
-        <v>759552</v>
+        <v>109002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3117</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>3285348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4576,40 +3924,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3117</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3285348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>3231</v>
       </c>
       <c r="D21" s="7">
-        <v>35397</v>
+        <v>3394350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4625,342 +3973,46 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>3231</v>
       </c>
       <c r="N21" s="7">
-        <v>35397</v>
+        <v>3394350</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7">
-        <v>895</v>
-      </c>
-      <c r="D22" s="7">
-        <v>902170</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="7">
-        <v>895</v>
-      </c>
-      <c r="N22" s="7">
-        <v>902170</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>932</v>
-      </c>
-      <c r="D23" s="7">
-        <v>937567</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>932</v>
-      </c>
-      <c r="N23" s="7">
-        <v>937567</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>114</v>
-      </c>
-      <c r="D25" s="7">
-        <v>109002</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>114</v>
-      </c>
-      <c r="N25" s="7">
-        <v>109002</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3117</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3231</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>62</v>
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4101B63E-EC35-46C7-8AE8-76F249DBD978}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF38929-645C-41DC-8125-F4481A498694}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4976,7 +4028,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5077,19 +4129,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4610</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5105,19 +4157,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4610</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,19 +4178,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D5" s="7">
-        <v>4610</v>
+        <v>97372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5154,40 +4206,40 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="N5" s="7">
-        <v>4610</v>
+        <v>97372</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
-        <v>97372</v>
+        <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5203,40 +4255,42 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7">
-        <v>97372</v>
+        <v>101982</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>42399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5252,42 +4306,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>101982</v>
+        <v>42399</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>542</v>
       </c>
       <c r="D8" s="7">
-        <v>707</v>
+        <v>506008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5303,40 +4355,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>542</v>
       </c>
       <c r="N8" s="7">
-        <v>707</v>
+        <v>506008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>68</v>
+        <v>610</v>
       </c>
       <c r="D9" s="7">
-        <v>42400</v>
+        <v>548407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5352,40 +4404,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>610</v>
       </c>
       <c r="N9" s="7">
-        <v>42400</v>
+        <v>548407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>542</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>506008</v>
+        <v>51601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5401,40 +4455,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>542</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>506008</v>
+        <v>51601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>887</v>
       </c>
       <c r="D11" s="7">
-        <v>549115</v>
+        <v>983004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5450,42 +4504,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>611</v>
+        <v>887</v>
       </c>
       <c r="N11" s="7">
-        <v>549115</v>
+        <v>983004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="D12" s="7">
-        <v>2699</v>
+        <v>1034605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5501,40 +4553,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="N12" s="7">
-        <v>2699</v>
+        <v>1034605</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>51601</v>
+        <v>29469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5550,40 +4604,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>51601</v>
+        <v>29469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>887</v>
+        <v>633</v>
       </c>
       <c r="D14" s="7">
-        <v>983005</v>
+        <v>692411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5599,19 +4653,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>887</v>
+        <v>633</v>
       </c>
       <c r="N14" s="7">
-        <v>983005</v>
+        <v>692411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,19 +4674,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>962</v>
+        <v>669</v>
       </c>
       <c r="D15" s="7">
-        <v>1037304</v>
+        <v>721880</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5648,19 +4702,19 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>962</v>
+        <v>669</v>
       </c>
       <c r="N15" s="7">
-        <v>1037304</v>
+        <v>721880</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,19 +4725,19 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>2039</v>
+        <v>66308</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5699,19 +4753,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7">
-        <v>2039</v>
+        <v>66308</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,19 +4774,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>908</v>
       </c>
       <c r="D17" s="7">
-        <v>29469</v>
+        <v>891470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5748,40 +4802,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>908</v>
       </c>
       <c r="N17" s="7">
-        <v>29469</v>
+        <v>891470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>633</v>
+        <v>1002</v>
       </c>
       <c r="D18" s="7">
-        <v>692411</v>
+        <v>957778</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5797,40 +4851,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>633</v>
+        <v>1002</v>
       </c>
       <c r="N18" s="7">
-        <v>692411</v>
+        <v>957778</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>671</v>
+        <v>278</v>
       </c>
       <c r="D19" s="7">
-        <v>723919</v>
+        <v>194387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5846,42 +4902,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>671</v>
+        <v>278</v>
       </c>
       <c r="N19" s="7">
-        <v>723919</v>
+        <v>194387</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>3081</v>
       </c>
       <c r="D20" s="7">
-        <v>7625</v>
+        <v>3170265</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5897,40 +4951,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>3081</v>
       </c>
       <c r="N20" s="7">
-        <v>7625</v>
+        <v>3170265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>94</v>
+        <v>3359</v>
       </c>
       <c r="D21" s="7">
-        <v>66308</v>
+        <v>3364652</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5946,334 +5000,38 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>3359</v>
       </c>
       <c r="N21" s="7">
-        <v>66308</v>
+        <v>3364652</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="7">
-        <v>908</v>
-      </c>
-      <c r="D22" s="7">
-        <v>891469</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="7">
-        <v>908</v>
-      </c>
-      <c r="N22" s="7">
-        <v>891469</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1006</v>
-      </c>
-      <c r="D23" s="7">
-        <v>965403</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1006</v>
-      </c>
-      <c r="N23" s="7">
-        <v>965403</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7">
-        <v>13070</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="7">
-        <v>9</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13070</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>278</v>
-      </c>
-      <c r="D25" s="7">
-        <v>194387</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>278</v>
-      </c>
-      <c r="N25" s="7">
-        <v>194387</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3081</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3368</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>62</v>
+      <c r="A22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1434-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C41D196-8B51-4413-847C-868FAABAF7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDCEDCCD-6FF6-4453-8CDA-3999440EA9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60E9D29A-1DA8-402D-BF2F-83112590AB88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{186E84A0-5C38-4542-90AF-B7FCF1E836B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="133">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -68,457 +68,376 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
 </sst>
 </file>
@@ -930,8 +849,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF38C137-8659-4859-A77B-D215FD8543ED}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB69503-43E2-45D5-B8BA-CFA1D2857925}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1048,10 +967,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>3220</v>
+        <v>17523</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1076,10 +995,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>3220</v>
+        <v>17523</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1097,10 +1016,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>665</v>
       </c>
       <c r="D5" s="7">
-        <v>112138</v>
+        <v>676489</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1125,10 +1044,10 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>102</v>
+        <v>665</v>
       </c>
       <c r="N5" s="7">
-        <v>112138</v>
+        <v>676489</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1146,10 +1065,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1174,10 +1093,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="N6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1197,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>14303</v>
+        <v>34283</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
@@ -1225,10 +1144,10 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>14303</v>
+        <v>34283</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1246,10 +1165,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="D8" s="7">
-        <v>564351</v>
+        <v>927517</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -1274,10 +1193,10 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="N8" s="7">
-        <v>564351</v>
+        <v>927517</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1295,10 +1214,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1323,10 +1242,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="N9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1346,19 +1265,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>34283</v>
+        <v>22815</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1374,19 +1293,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>34283</v>
+        <v>22815</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,19 +1314,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>862</v>
+        <v>618</v>
       </c>
       <c r="D11" s="7">
-        <v>927517</v>
+        <v>655694</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1423,19 +1342,19 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>862</v>
+        <v>618</v>
       </c>
       <c r="N11" s="7">
-        <v>927517</v>
+        <v>655694</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,10 +1363,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1472,10 +1391,10 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="N12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1489,25 +1408,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>22815</v>
+        <v>31568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1523,19 +1442,19 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>22815</v>
+        <v>31568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,19 +1463,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>958</v>
       </c>
       <c r="D14" s="7">
-        <v>655694</v>
+        <v>910654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1572,19 +1491,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>618</v>
+        <v>958</v>
       </c>
       <c r="N14" s="7">
-        <v>655694</v>
+        <v>910654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1621,10 +1540,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="N15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1638,25 +1557,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="D16" s="7">
-        <v>31568</v>
+        <v>106188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1672,19 +1591,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7">
-        <v>31568</v>
+        <v>106188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,19 +1612,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>958</v>
+        <v>3103</v>
       </c>
       <c r="D17" s="7">
-        <v>910654</v>
+        <v>3170355</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1721,19 +1640,19 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>958</v>
+        <v>3103</v>
       </c>
       <c r="N17" s="7">
-        <v>910654</v>
+        <v>3170355</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1770,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="N18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1786,165 +1705,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>111</v>
-      </c>
-      <c r="D19" s="7">
-        <v>106188</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>111</v>
-      </c>
-      <c r="N19" s="7">
-        <v>106188</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3170356</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3103</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3170356</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1957,8 +1726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0B403B-778E-4F79-A730-13F81EE19E30}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0402B1-1C06-4F5E-8870-A82FEE2DDAA5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1974,7 +1743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2075,19 +1844,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>1651</v>
+        <v>22435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2103,19 +1872,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>1651</v>
+        <v>22435</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,19 +1893,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="D5" s="7">
-        <v>114114</v>
+        <v>681034</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2152,19 +1921,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="N5" s="7">
-        <v>114114</v>
+        <v>681034</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2201,10 +1970,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="N6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2224,19 +1993,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>20785</v>
+        <v>32936</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2252,19 +2021,19 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>20785</v>
+        <v>32936</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,19 +2042,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>904</v>
       </c>
       <c r="D8" s="7">
-        <v>566919</v>
+        <v>982820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2301,19 +2070,19 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>534</v>
+        <v>904</v>
       </c>
       <c r="N8" s="7">
-        <v>566919</v>
+        <v>982820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,10 +2091,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1015756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2350,10 +2119,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="N9" s="7">
-        <v>587704</v>
+        <v>1015756</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2373,19 +2142,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>32936</v>
+        <v>27213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2401,19 +2170,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>32936</v>
+        <v>27213</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,19 +2191,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>904</v>
+        <v>666</v>
       </c>
       <c r="D11" s="7">
-        <v>982820</v>
+        <v>730410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2450,19 +2219,19 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>904</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>982820</v>
+        <v>730410</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,10 +2240,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1015756</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2499,10 +2268,10 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="N12" s="7">
-        <v>1015756</v>
+        <v>757623</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2516,25 +2285,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>27213</v>
+        <v>41825</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2550,19 +2319,19 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>27213</v>
+        <v>41825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,19 +2340,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>666</v>
+        <v>872</v>
       </c>
       <c r="D14" s="7">
-        <v>730410</v>
+        <v>905914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2599,19 +2368,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>666</v>
+        <v>872</v>
       </c>
       <c r="N14" s="7">
-        <v>730410</v>
+        <v>905914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,10 +2389,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2648,10 +2417,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="N15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2665,25 +2434,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>41825</v>
+        <v>124409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2699,19 +2468,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="N16" s="7">
-        <v>41825</v>
+        <v>124409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,19 +2489,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>872</v>
+        <v>3096</v>
       </c>
       <c r="D17" s="7">
-        <v>905914</v>
+        <v>3300178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2748,19 +2517,19 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>872</v>
+        <v>3096</v>
       </c>
       <c r="N17" s="7">
-        <v>905914</v>
+        <v>3300178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,10 +2538,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3424587</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2797,10 +2566,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="N18" s="7">
-        <v>947739</v>
+        <v>3424587</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2813,165 +2582,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>112</v>
-      </c>
-      <c r="D19" s="7">
-        <v>124409</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>112</v>
-      </c>
-      <c r="N19" s="7">
-        <v>124409</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3096</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3096</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2984,8 +2603,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40F368E-C19B-4AB7-ADB9-DA16F3E5BBD7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5BEB3B-7394-4E98-BAA6-6A12A6458A4A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3001,7 +2620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3102,19 +2721,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>10126</v>
+        <v>25341</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3130,19 +2749,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>10126</v>
+        <v>25341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,19 +2770,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="D5" s="7">
-        <v>106420</v>
+        <v>649459</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3179,19 +2798,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>102</v>
+        <v>625</v>
       </c>
       <c r="N5" s="7">
-        <v>106420</v>
+        <v>649459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3228,10 +2847,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="N6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3251,19 +2870,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>15215</v>
+        <v>24826</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3279,19 +2898,19 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>15215</v>
+        <v>24826</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,19 +2919,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>523</v>
+        <v>924</v>
       </c>
       <c r="D8" s="7">
-        <v>543039</v>
+        <v>997605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3328,19 +2947,19 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>523</v>
+        <v>924</v>
       </c>
       <c r="N8" s="7">
-        <v>543039</v>
+        <v>997605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3377,10 +2996,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="N9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3400,19 +3019,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>24826</v>
+        <v>23438</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3428,19 +3047,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>24826</v>
+        <v>23438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,19 +3068,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c r="D11" s="7">
-        <v>997605</v>
+        <v>736114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3477,19 +3096,19 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>924</v>
+        <v>673</v>
       </c>
       <c r="N11" s="7">
-        <v>997605</v>
+        <v>736114</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3526,10 +3145,10 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3543,25 +3162,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>23438</v>
+        <v>35397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3577,19 +3196,19 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>23438</v>
+        <v>35397</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,19 +3217,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>673</v>
+        <v>895</v>
       </c>
       <c r="D14" s="7">
-        <v>736114</v>
+        <v>902170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3626,19 +3245,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>673</v>
+        <v>895</v>
       </c>
       <c r="N14" s="7">
-        <v>736114</v>
+        <v>902170</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,10 +3266,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3675,10 +3294,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="N15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3692,25 +3311,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>35397</v>
+        <v>109002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3726,19 +3345,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="N16" s="7">
-        <v>35397</v>
+        <v>109002</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,19 +3366,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>895</v>
+        <v>3117</v>
       </c>
       <c r="D17" s="7">
-        <v>902170</v>
+        <v>3285348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3775,19 +3394,19 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>895</v>
+        <v>3117</v>
       </c>
       <c r="N17" s="7">
-        <v>902170</v>
+        <v>3285348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,10 +3415,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3824,10 +3443,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="N18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3840,165 +3459,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>114</v>
-      </c>
-      <c r="D19" s="7">
-        <v>109002</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>114</v>
-      </c>
-      <c r="N19" s="7">
-        <v>109002</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3117</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4011,8 +3480,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF38929-645C-41DC-8125-F4481A498694}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E1657C-F241-4CDE-9AC1-CD43916CF4D5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4028,7 +3497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4129,19 +3598,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>4610</v>
+        <v>44743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4157,19 +3626,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>4610</v>
+        <v>44743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,19 +3647,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>653</v>
       </c>
       <c r="D5" s="7">
-        <v>97372</v>
+        <v>589365</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4206,19 +3675,19 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>653</v>
       </c>
       <c r="N5" s="7">
-        <v>97372</v>
+        <v>589365</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,10 +3696,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634108</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4255,10 +3724,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="N6" s="7">
-        <v>101982</v>
+        <v>634108</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4278,19 +3747,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>42399</v>
+        <v>47414</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4306,19 +3775,19 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>42399</v>
+        <v>47414</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,19 +3796,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>542</v>
+        <v>887</v>
       </c>
       <c r="D8" s="7">
-        <v>506008</v>
+        <v>1141008</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4355,19 +3824,19 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>542</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>506008</v>
+        <v>1141008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,10 +3845,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="D9" s="7">
-        <v>548407</v>
+        <v>1188422</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4404,10 +3873,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="N9" s="7">
-        <v>548407</v>
+        <v>1188422</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4427,19 +3896,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>51601</v>
+        <v>27205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4455,19 +3924,19 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>51601</v>
+        <v>27205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,19 +3945,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>887</v>
+        <v>633</v>
       </c>
       <c r="D11" s="7">
-        <v>983004</v>
+        <v>671097</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4504,19 +3973,19 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>983004</v>
+        <v>671097</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,10 +3994,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>960</v>
+        <v>669</v>
       </c>
       <c r="D12" s="7">
-        <v>1034605</v>
+        <v>698302</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4553,10 +4022,10 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>960</v>
+        <v>669</v>
       </c>
       <c r="N12" s="7">
-        <v>1034605</v>
+        <v>698302</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4570,25 +4039,25 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>29469</v>
+        <v>60876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4604,19 +4073,19 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N13" s="7">
-        <v>29469</v>
+        <v>60876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,19 +4094,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>633</v>
+        <v>908</v>
       </c>
       <c r="D14" s="7">
-        <v>692411</v>
+        <v>858303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4653,19 +4122,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>633</v>
+        <v>908</v>
       </c>
       <c r="N14" s="7">
-        <v>692411</v>
+        <v>858303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,10 +4143,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>669</v>
+        <v>1002</v>
       </c>
       <c r="D15" s="7">
-        <v>721880</v>
+        <v>919179</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4702,10 +4171,10 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>669</v>
+        <v>1002</v>
       </c>
       <c r="N15" s="7">
-        <v>721880</v>
+        <v>919179</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4719,25 +4188,25 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="D16" s="7">
-        <v>66308</v>
+        <v>180237</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4753,19 +4222,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="N16" s="7">
-        <v>66308</v>
+        <v>180237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,19 +4243,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>908</v>
+        <v>3081</v>
       </c>
       <c r="D17" s="7">
-        <v>891470</v>
+        <v>3259774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4802,19 +4271,19 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>908</v>
+        <v>3081</v>
       </c>
       <c r="N17" s="7">
-        <v>891470</v>
+        <v>3259774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1002</v>
+        <v>3359</v>
       </c>
       <c r="D18" s="7">
-        <v>957778</v>
+        <v>3440011</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4851,10 +4320,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>1002</v>
+        <v>3359</v>
       </c>
       <c r="N18" s="7">
-        <v>957778</v>
+        <v>3440011</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4867,165 +4336,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>278</v>
-      </c>
-      <c r="D19" s="7">
-        <v>194387</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>278</v>
-      </c>
-      <c r="N19" s="7">
-        <v>194387</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3081</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3359</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3364652</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3359</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3364652</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
